--- a/assignment_1/code/newspapers.xlsx
+++ b/assignment_1/code/newspapers.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgentil1/Desktop/Diego/Brown/Industrial Organization/Industrial Organization/assignment_1/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FFADEF-BB87-D44E-A016-0E31873FF014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9395DB00-6B1F-5C4C-91BC-5B402078B24F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{6C9545F0-4641-4343-B15E-0F3CD4B04074}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -399,10 +399,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -724,7 +724,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1045,7 +1045,7 @@
     <row r="24" spans="1:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="3"/>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="30" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="31">
@@ -1082,7 +1082,7 @@
         <f>-B22/(B22-B23)</f>
         <v>-1.7667902877014194</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="31"/>
       <c r="G25" s="18" t="s">
         <v>40</v>
@@ -1108,7 +1108,7 @@
         <f>-(B25/100)*G2</f>
         <v>883.3951438507097</v>
       </c>
-      <c r="D26" s="30"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="9"/>
       <c r="J26" s="18" t="s">
         <v>47</v>
